--- a/PROJECT/PM/Gantt_chart.xlsx
+++ b/PROJECT/PM/Gantt_chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Gantt chart</t>
   </si>
@@ -96,9 +96,6 @@
     <t>SFC</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
     <t>Phase 2-Architektur/Design</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Predecessor</t>
   </si>
   <si>
-    <t>Project overview</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -136,6 +130,30 @@
   </si>
   <si>
     <t>28 d</t>
+  </si>
+  <si>
+    <t>Navigation tree</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Loader/Importer</t>
+  </si>
+  <si>
+    <t>Saver/Exporter</t>
+  </si>
+  <si>
+    <t>FBs</t>
+  </si>
+  <si>
+    <t>Variables Interface</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Debugger</t>
   </si>
 </sst>
 </file>
@@ -323,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,6 +386,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,12 +411,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Akzent1" xfId="3" builtinId="30"/>
@@ -404,158 +423,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>105886</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107474</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>794</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4514850" y="3379470"/>
-          <a:ext cx="5311140" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>85408</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8112284" y="3386296"/>
-          <a:ext cx="5311140" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>108268</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9087644" y="3378676"/>
-          <a:ext cx="5311140" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -855,7 +722,7 @@
     <col min="2" max="2" width="3.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="33"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="40" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="3" customWidth="1"/>
     <col min="10" max="12" width="2.77734375" style="1" customWidth="1"/>
@@ -886,61 +753,61 @@
       <c r="B3" s="37"/>
       <c r="C3" s="38"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="47"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="40">
+      <c r="I3" s="43">
         <v>44105</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="40">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="43">
         <v>44136</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="45">
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48">
         <v>44166</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="40">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="43">
         <v>44197</v>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="43">
         <v>44228</v>
       </c>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="40">
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="43">
         <v>44256</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="40">
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="43">
         <v>44287</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="40">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="43">
         <v>44317</v>
       </c>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
     </row>
     <row r="4" spans="1:43" s="4" customFormat="1">
       <c r="A4" s="37" t="s">
@@ -948,12 +815,12 @@
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="37" t="s">
@@ -1078,7 +945,7 @@
       <c r="D5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -1115,8 +982,8 @@
       <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>35</v>
+      <c r="E6" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="34">
         <v>44106</v>
@@ -1163,8 +1030,8 @@
       <c r="D7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>35</v>
+      <c r="E7" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="34">
         <v>44106</v>
@@ -1211,8 +1078,8 @@
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>35</v>
+      <c r="E8" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="34">
         <v>44106</v>
@@ -1259,8 +1126,8 @@
       <c r="D9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>35</v>
+      <c r="E9" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="34">
         <v>44106</v>
@@ -1307,8 +1174,8 @@
       <c r="D10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>35</v>
+      <c r="E10" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="34">
         <v>44106</v>
@@ -1339,9 +1206,9 @@
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
       <c r="D11" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="41"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="37"/>
@@ -1378,8 +1245,8 @@
       <c r="D12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>36</v>
+      <c r="E12" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="34">
         <v>44148</v>
@@ -1422,8 +1289,8 @@
       <c r="D13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>37</v>
+      <c r="E13" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="34">
         <v>44120</v>
@@ -1467,8 +1334,8 @@
       <c r="D14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>36</v>
+      <c r="E14" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="34">
         <v>44232</v>
@@ -1510,8 +1377,8 @@
       <c r="D15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>36</v>
+      <c r="E15" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="34">
         <v>44232</v>
@@ -1542,7 +1409,7 @@
       <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="37"/>
@@ -1579,8 +1446,8 @@
       <c r="D17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>36</v>
+      <c r="E17" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="34">
         <v>44120</v>
@@ -1623,10 +1490,10 @@
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
       <c r="D18" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="34">
         <v>44232</v>
@@ -1670,10 +1537,10 @@
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
       <c r="D19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="34">
         <v>44232</v>
@@ -1715,10 +1582,10 @@
         <v>9.15</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F20" s="34">
         <v>44239</v>
@@ -1737,8 +1604,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="28"/>
+      <c r="AA20" s="3"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="13"/>
@@ -1762,10 +1628,10 @@
         <v>9.15</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="34">
         <v>44239</v>
@@ -1809,10 +1675,10 @@
         <v>9.15</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="34">
         <v>44239</v>
@@ -1853,19 +1719,19 @@
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="38">
-        <v>10</v>
+        <v>9.15</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F23" s="34">
+        <v>44239</v>
+      </c>
+      <c r="G23" s="34">
         <v>44260</v>
-      </c>
-      <c r="G23" s="34">
-        <v>44281</v>
       </c>
       <c r="H23" s="37"/>
       <c r="N23" s="1"/>
@@ -1878,14 +1744,14 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="13"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -1894,19 +1760,17 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:43" s="4" customFormat="1">
+    <row r="24" spans="1:43">
       <c r="A24" s="37">
         <v>20</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="38">
-        <v>11</v>
-      </c>
+      <c r="C24" s="38"/>
       <c r="D24" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="34">
         <v>44260</v>
@@ -1915,19 +1779,30 @@
         <v>44281</v>
       </c>
       <c r="H24" s="37"/>
-      <c r="I24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="15"/>
-      <c r="AM24" s="6"/>
-      <c r="AQ24" s="6"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="28"/>
+      <c r="AD24"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="37">
@@ -1935,12 +1810,18 @@
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="D25" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="34">
+        <v>44260</v>
+      </c>
+      <c r="G25" s="34">
+        <v>44281</v>
+      </c>
       <c r="H25" s="37"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1952,12 +1833,13 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="28"/>
+      <c r="AD25"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="13"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1973,16 +1855,16 @@
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
       <c r="D26" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="47" t="s">
         <v>39</v>
       </c>
+      <c r="E26" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="F26" s="34">
+        <v>44260</v>
+      </c>
+      <c r="G26" s="34">
         <v>44281</v>
-      </c>
-      <c r="G26" s="34">
-        <v>44309</v>
       </c>
       <c r="H26" s="37"/>
       <c r="N26" s="1"/>
@@ -1995,17 +1877,17 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="28"/>
+      <c r="AD26"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
@@ -2015,18 +1897,20 @@
         <v>23</v>
       </c>
       <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="C27" s="38">
+        <v>10</v>
+      </c>
       <c r="D27" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="34">
+        <v>44260</v>
+      </c>
+      <c r="G27" s="34">
         <v>44281</v>
-      </c>
-      <c r="G27" s="34">
-        <v>44309</v>
       </c>
       <c r="H27" s="37"/>
       <c r="N27" s="1"/>
@@ -2041,85 +1925,67 @@
       <c r="Y27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" s="4" customFormat="1">
       <c r="A28" s="37">
         <v>24</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38">
-        <v>19.2</v>
+        <v>11</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="34">
+        <v>44260</v>
+      </c>
+      <c r="G28" s="34">
         <v>44281</v>
       </c>
-      <c r="G28" s="34">
-        <v>44309</v>
-      </c>
       <c r="H28" s="37"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
+      <c r="I28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AM28" s="6"/>
+      <c r="AQ28" s="6"/>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" s="37">
         <v>25</v>
       </c>
       <c r="B29" s="37"/>
-      <c r="C29" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G29" s="34">
-        <v>44309</v>
-      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="37"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2136,12 +2002,11 @@
       <c r="AC29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
+      <c r="AG29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
@@ -2151,14 +2016,12 @@
         <v>26</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="38">
-        <v>12</v>
-      </c>
+      <c r="C30" s="38"/>
       <c r="D30" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="F30" s="34">
         <v>44281</v>
@@ -2197,14 +2060,12 @@
         <v>27</v>
       </c>
       <c r="B31" s="37"/>
-      <c r="C31" s="38" t="s">
-        <v>34</v>
-      </c>
+      <c r="C31" s="38"/>
       <c r="D31" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="F31" s="34">
         <v>44281</v>
@@ -2244,13 +2105,13 @@
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="38">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="34">
         <v>44281</v>
@@ -2284,19 +2145,19 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:43" s="4" customFormat="1">
+    <row r="33" spans="1:43">
       <c r="A33" s="37">
         <v>29</v>
       </c>
       <c r="B33" s="37"/>
-      <c r="C33" s="38" t="s">
-        <v>34</v>
+      <c r="C33" s="38">
+        <v>19.2</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="F33" s="34">
         <v>44281</v>
@@ -2305,23 +2166,207 @@
         <v>44309</v>
       </c>
       <c r="H33" s="37"/>
-      <c r="I33" s="7"/>
-      <c r="M33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="6"/>
-      <c r="AQ33" s="6"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
     </row>
     <row r="34" spans="1:43">
-      <c r="D34" s="24"/>
+      <c r="A34" s="37">
+        <v>30</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38">
+        <v>12</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="34">
+        <v>44281</v>
+      </c>
+      <c r="G34" s="34">
+        <v>44309</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="37">
+        <v>31</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="34">
+        <v>44281</v>
+      </c>
+      <c r="G35" s="34">
+        <v>44309</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="37">
+        <v>32</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38">
+        <v>15</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="34">
+        <v>44281</v>
+      </c>
+      <c r="G36" s="34">
+        <v>44309</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+    </row>
+    <row r="37" spans="1:43" s="4" customFormat="1">
+      <c r="A37" s="37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="34">
+        <v>44281</v>
+      </c>
+      <c r="G37" s="34">
+        <v>44309</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="7"/>
+      <c r="M37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="6"/>
+      <c r="AQ37" s="6"/>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2336,7 +2381,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
